--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H2">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I2">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J2">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>1.910447985642401</v>
+        <v>11.42569040389867</v>
       </c>
       <c r="R2">
-        <v>1.910447985642401</v>
+        <v>102.831213635088</v>
       </c>
       <c r="S2">
-        <v>0.01174720517073466</v>
+        <v>0.05536953385681274</v>
       </c>
       <c r="T2">
-        <v>0.01174720517073466</v>
+        <v>0.05536953385681274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H3">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I3">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J3">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>11.17549968216995</v>
+        <v>13.47936789380267</v>
       </c>
       <c r="R3">
-        <v>11.17549968216995</v>
+        <v>121.314311044224</v>
       </c>
       <c r="S3">
-        <v>0.06871733155707264</v>
+        <v>0.06532176967701431</v>
       </c>
       <c r="T3">
-        <v>0.06871733155707264</v>
+        <v>0.06532176967701432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H4">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I4">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J4">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>0.9276546970555907</v>
+        <v>1.72527301288</v>
       </c>
       <c r="R4">
-        <v>0.9276546970555907</v>
+        <v>15.52745711592</v>
       </c>
       <c r="S4">
-        <v>0.005704080998700117</v>
+        <v>0.008360769382155551</v>
       </c>
       <c r="T4">
-        <v>0.005704080998700117</v>
+        <v>0.008360769382155553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H5">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I5">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J5">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>1.833096271486981</v>
+        <v>2.569691220250667</v>
       </c>
       <c r="R5">
-        <v>1.833096271486981</v>
+        <v>23.127220982256</v>
       </c>
       <c r="S5">
-        <v>0.01127157512829402</v>
+        <v>0.01245286717839599</v>
       </c>
       <c r="T5">
-        <v>0.01127157512829402</v>
+        <v>0.01245286717839599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H6">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I6">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J6">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>49.88543823711944</v>
+        <v>61.66272699452799</v>
       </c>
       <c r="R6">
-        <v>49.88543823711944</v>
+        <v>554.9645429507519</v>
       </c>
       <c r="S6">
-        <v>0.3067419172924527</v>
+        <v>0.298821019066114</v>
       </c>
       <c r="T6">
-        <v>0.3067419172924527</v>
+        <v>0.298821019066114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H7">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I7">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J7">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>0.9828173102535841</v>
+        <v>1.431193606101333</v>
       </c>
       <c r="R7">
-        <v>0.9828173102535841</v>
+        <v>12.880742454912</v>
       </c>
       <c r="S7">
-        <v>0.006043271879509577</v>
+        <v>0.006935644151677865</v>
       </c>
       <c r="T7">
-        <v>0.006043271879509577</v>
+        <v>0.006935644151677866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H8">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I8">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J8">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>2.155090574694781</v>
+        <v>10.81535617651133</v>
       </c>
       <c r="R8">
-        <v>2.155090574694781</v>
+        <v>97.33820558860201</v>
       </c>
       <c r="S8">
-        <v>0.01325149458803156</v>
+        <v>0.05241182010187295</v>
       </c>
       <c r="T8">
-        <v>0.01325149458803156</v>
+        <v>0.05241182010187297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H9">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I9">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J9">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>12.60657930158224</v>
+        <v>12.75933091587733</v>
       </c>
       <c r="R9">
-        <v>12.60657930158224</v>
+        <v>114.833978242896</v>
       </c>
       <c r="S9">
-        <v>0.07751693564534633</v>
+        <v>0.06183243026573549</v>
       </c>
       <c r="T9">
-        <v>0.07751693564534633</v>
+        <v>0.0618324302657355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H10">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I10">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J10">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>1.046445602926797</v>
+        <v>1.63311287777</v>
       </c>
       <c r="R10">
-        <v>1.046445602926797</v>
+        <v>14.69801589993</v>
       </c>
       <c r="S10">
-        <v>0.006434517605283389</v>
+        <v>0.007914156219988967</v>
       </c>
       <c r="T10">
-        <v>0.006434517605283389</v>
+        <v>0.007914156219988968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H11">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I11">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J11">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>2.067833579808958</v>
+        <v>2.432424197419333</v>
       </c>
       <c r="R11">
-        <v>2.067833579808958</v>
+        <v>21.891817776774</v>
       </c>
       <c r="S11">
-        <v>0.01271495769762214</v>
+        <v>0.01178766351897511</v>
       </c>
       <c r="T11">
-        <v>0.01271495769762214</v>
+        <v>0.01178766351897511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H12">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I12">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J12">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>56.27352252837419</v>
+        <v>58.368845267612</v>
       </c>
       <c r="R12">
-        <v>56.27352252837419</v>
+        <v>525.319607408508</v>
       </c>
       <c r="S12">
-        <v>0.3460217811679842</v>
+        <v>0.2828586842441779</v>
       </c>
       <c r="T12">
-        <v>0.3460217811679842</v>
+        <v>0.2828586842441779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H13">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I13">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J13">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>1.108672069531463</v>
+        <v>1.354742519738667</v>
       </c>
       <c r="R13">
-        <v>1.108672069531463</v>
+        <v>12.192682677648</v>
       </c>
       <c r="S13">
-        <v>0.006817143604917234</v>
+        <v>0.006565157917138954</v>
       </c>
       <c r="T13">
-        <v>0.006817143604917234</v>
+        <v>0.006565157917138955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H14">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I14">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J14">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>0.5915306249083085</v>
+        <v>0.1476098292551111</v>
       </c>
       <c r="R14">
-        <v>0.5915306249083085</v>
+        <v>1.328488463296</v>
       </c>
       <c r="S14">
-        <v>0.003637278621450769</v>
+        <v>0.0007153254770276646</v>
       </c>
       <c r="T14">
-        <v>0.003637278621450769</v>
+        <v>0.0007153254770276646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H15">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I15">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J15">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>3.460261865456505</v>
+        <v>0.1741415286897778</v>
       </c>
       <c r="R15">
-        <v>3.460261865456505</v>
+        <v>1.567273758208</v>
       </c>
       <c r="S15">
-        <v>0.02127689755673632</v>
+        <v>0.0008438995743640749</v>
       </c>
       <c r="T15">
-        <v>0.02127689755673632</v>
+        <v>0.0008438995743640747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H16">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I16">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J16">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>0.2872290513912658</v>
+        <v>0.02228900362666666</v>
       </c>
       <c r="R16">
-        <v>0.2872290513912658</v>
+        <v>0.20060103264</v>
       </c>
       <c r="S16">
-        <v>0.001766150464732026</v>
+        <v>0.0001080137564833922</v>
       </c>
       <c r="T16">
-        <v>0.001766150464732026</v>
+        <v>0.0001080137564833922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H17">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I17">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J17">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>0.5675802697267207</v>
+        <v>0.03319814110577778</v>
       </c>
       <c r="R17">
-        <v>0.5675802697267207</v>
+        <v>0.298783269952</v>
       </c>
       <c r="S17">
-        <v>0.003490009636194688</v>
+        <v>0.0001608800460156344</v>
       </c>
       <c r="T17">
-        <v>0.003490009636194688</v>
+        <v>0.0001608800460156344</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.40242166840398</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H18">
-        <v>1.40242166840398</v>
+        <v>0.211648</v>
       </c>
       <c r="I18">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="J18">
-        <v>0.1270177876640514</v>
+        <v>0.005778224909257943</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>15.44599207934237</v>
+        <v>0.7966279744426668</v>
       </c>
       <c r="R18">
-        <v>15.44599207934237</v>
+        <v>7.169651769984</v>
       </c>
       <c r="S18">
-        <v>0.09497627749366046</v>
+        <v>0.003860503658241656</v>
       </c>
       <c r="T18">
-        <v>0.09497627749366046</v>
+        <v>0.003860503658241656</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.07054933333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.211648</v>
+      </c>
+      <c r="I19">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="J19">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P19">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q19">
+        <v>0.01848975741155556</v>
+      </c>
+      <c r="R19">
+        <v>0.166407816704</v>
+      </c>
+      <c r="S19">
+        <v>8.960239712552074E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.960239712552073E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.090335</v>
+      </c>
+      <c r="H20">
+        <v>0.271005</v>
+      </c>
+      <c r="I20">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J20">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N20">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P20">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q20">
+        <v>0.1890072279316667</v>
+      </c>
+      <c r="R20">
+        <v>1.701065051385</v>
+      </c>
+      <c r="S20">
+        <v>0.0009159395831847322</v>
+      </c>
+      <c r="T20">
+        <v>0.0009159395831847323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.090335</v>
+      </c>
+      <c r="H21">
+        <v>0.271005</v>
+      </c>
+      <c r="I21">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J21">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.405096</v>
+      </c>
+      <c r="O21">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P21">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q21">
+        <v>0.2229797823866667</v>
+      </c>
+      <c r="R21">
+        <v>2.00681804148</v>
+      </c>
+      <c r="S21">
+        <v>0.001080572479544036</v>
+      </c>
+      <c r="T21">
+        <v>0.001080572479544036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.090335</v>
+      </c>
+      <c r="H22">
+        <v>0.271005</v>
+      </c>
+      <c r="I22">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J22">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.315935</v>
+      </c>
+      <c r="N22">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P22">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q22">
+        <v>0.028539988225</v>
+      </c>
+      <c r="R22">
+        <v>0.256859894025</v>
+      </c>
+      <c r="S22">
+        <v>0.0001383063769833956</v>
+      </c>
+      <c r="T22">
+        <v>0.0001383063769833956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.090335</v>
+      </c>
+      <c r="H23">
+        <v>0.271005</v>
+      </c>
+      <c r="I23">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J23">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N23">
+        <v>1.411699</v>
+      </c>
+      <c r="O23">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P23">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q23">
+        <v>0.04250860972166667</v>
+      </c>
+      <c r="R23">
+        <v>0.382577487495</v>
+      </c>
+      <c r="S23">
+        <v>0.0002059990969461889</v>
+      </c>
+      <c r="T23">
+        <v>0.0002059990969461889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.090335</v>
+      </c>
+      <c r="H24">
+        <v>0.271005</v>
+      </c>
+      <c r="I24">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J24">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.291786</v>
+      </c>
+      <c r="N24">
+        <v>33.875358</v>
+      </c>
+      <c r="O24">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P24">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q24">
+        <v>1.02004348831</v>
+      </c>
+      <c r="R24">
+        <v>9.18039139479</v>
+      </c>
+      <c r="S24">
+        <v>0.004943187716877929</v>
+      </c>
+      <c r="T24">
+        <v>0.004943187716877929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.090335</v>
+      </c>
+      <c r="H25">
+        <v>0.271005</v>
+      </c>
+      <c r="I25">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J25">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P25">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q25">
+        <v>0.02367523769333333</v>
+      </c>
+      <c r="R25">
+        <v>0.21307713924</v>
+      </c>
+      <c r="S25">
+        <v>0.0001147315241958428</v>
+      </c>
+      <c r="T25">
+        <v>0.0001147315241958428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.255927</v>
+      </c>
+      <c r="I26">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J26">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N26">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P26">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q26">
+        <v>2.968214477775445</v>
+      </c>
+      <c r="R26">
+        <v>26.713930299979</v>
+      </c>
+      <c r="S26">
+        <v>0.01438413314309569</v>
+      </c>
+      <c r="T26">
+        <v>0.01438413314309569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H27">
+        <v>4.255927</v>
+      </c>
+      <c r="I27">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J27">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N27">
+        <v>7.405096</v>
+      </c>
+      <c r="O27">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P27">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q27">
+        <v>3.501727555999111</v>
+      </c>
+      <c r="R27">
+        <v>31.515548003992</v>
+      </c>
+      <c r="S27">
+        <v>0.01696956731849379</v>
+      </c>
+      <c r="T27">
+        <v>0.01696956731849379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.40242166840398</v>
-      </c>
-      <c r="H19">
-        <v>1.40242166840398</v>
-      </c>
-      <c r="I19">
-        <v>0.1270177876640514</v>
-      </c>
-      <c r="J19">
-        <v>0.1270177876640514</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="N19">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="O19">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="P19">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="Q19">
-        <v>0.3043090113283128</v>
-      </c>
-      <c r="R19">
-        <v>0.3043090113283128</v>
-      </c>
-      <c r="S19">
-        <v>0.001871173891277163</v>
-      </c>
-      <c r="T19">
-        <v>0.001871173891277163</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H28">
+        <v>4.255927</v>
+      </c>
+      <c r="I28">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J28">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.315935</v>
+      </c>
+      <c r="N28">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P28">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q28">
+        <v>0.4481987655816666</v>
+      </c>
+      <c r="R28">
+        <v>4.033788890234999</v>
+      </c>
+      <c r="S28">
+        <v>0.002171996251271422</v>
+      </c>
+      <c r="T28">
+        <v>0.002171996251271422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H29">
+        <v>4.255927</v>
+      </c>
+      <c r="I29">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J29">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N29">
+        <v>1.411699</v>
+      </c>
+      <c r="O29">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P29">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q29">
+        <v>0.6675653211081112</v>
+      </c>
+      <c r="R29">
+        <v>6.008087889973</v>
+      </c>
+      <c r="S29">
+        <v>0.003235058831641124</v>
+      </c>
+      <c r="T29">
+        <v>0.003235058831641125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H30">
+        <v>4.255927</v>
+      </c>
+      <c r="I30">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J30">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.291786</v>
+      </c>
+      <c r="N30">
+        <v>33.875358</v>
+      </c>
+      <c r="O30">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P30">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q30">
+        <v>16.01900563854067</v>
+      </c>
+      <c r="R30">
+        <v>144.171050746866</v>
+      </c>
+      <c r="S30">
+        <v>0.07762899603449802</v>
+      </c>
+      <c r="T30">
+        <v>0.07762899603449802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H31">
+        <v>4.255927</v>
+      </c>
+      <c r="I31">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J31">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q31">
+        <v>0.3718015657662223</v>
+      </c>
+      <c r="R31">
+        <v>3.346214091896</v>
+      </c>
+      <c r="S31">
+        <v>0.001801771153950078</v>
+      </c>
+      <c r="T31">
+        <v>0.001801771153950078</v>
       </c>
     </row>
   </sheetData>
